--- a/docss/trend/denmark/E_ataxy.xlsx
+++ b/docss/trend/denmark/E_ataxy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\denmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\denmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="B1:E21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,10 +1721,10 @@
         <v>2000</v>
       </c>
       <c r="B2" s="9">
-        <v>7.0973722264170647E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C2" s="9">
-        <v>3.4534957259893417E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>2001</v>
       </c>
       <c r="B3" s="9">
-        <v>5.960749089717865E-2</v>
+        <v>0.06</v>
       </c>
       <c r="C3" s="9">
-        <v>3.7647765129804611E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D3" s="9">
-        <v>5.4938370361924171E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1751,7 +1751,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="9">
-        <v>3.1149663962423801E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C4" s="9">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>2003</v>
       </c>
       <c r="B5" s="9">
-        <v>6.5277773886919022E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -1781,13 +1781,13 @@
         <v>2004</v>
       </c>
       <c r="B6" s="9">
-        <v>4.5854956842958927E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C6" s="9">
-        <v>3.4856259822845459E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D6" s="9">
-        <v>1.3243278488516808E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E6" s="9"/>
     </row>
@@ -1796,10 +1796,10 @@
         <v>2005</v>
       </c>
       <c r="B7" s="9">
-        <v>8.3558941259980202E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C7" s="9">
-        <v>2.2152319550514221E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -1810,14 +1810,14 @@
       <c r="A8">
         <v>2006</v>
       </c>
-      <c r="B8" s="9">
-        <v>6.178311537951231E-2</v>
-      </c>
-      <c r="C8" s="9">
-        <v>3.4834187477827072E-2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>3.2276805490255356E-2</v>
+      <c r="B8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="E8" s="9"/>
     </row>
@@ -1825,14 +1825,14 @@
       <c r="A9">
         <v>2007</v>
       </c>
-      <c r="B9" s="9">
-        <v>6.8223340436816216E-2</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7.2278141975402832E-2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2.7927760034799576E-2</v>
+      <c r="B9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E9" s="9"/>
     </row>
@@ -1840,14 +1840,14 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="9">
-        <v>0.11769840307533741</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="9">
-        <v>2.6407519355416298E-2</v>
+      <c r="D10">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="E10" s="9"/>
     </row>
@@ -1855,13 +1855,13 @@
       <c r="A11">
         <v>2009</v>
       </c>
-      <c r="B11" s="9">
-        <v>0.12159177102148533</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11">
+        <v>0.122</v>
+      </c>
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="9"/>
@@ -1870,13 +1870,13 @@
       <c r="A12">
         <v>2010</v>
       </c>
-      <c r="B12" s="9">
-        <v>3.8324140012264252E-2</v>
-      </c>
-      <c r="C12" s="9">
+      <c r="B12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="9"/>
@@ -1885,13 +1885,13 @@
       <c r="A13">
         <v>2011</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.11369165871292353</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13">
+        <v>0.114</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="9"/>
@@ -1900,13 +1900,13 @@
       <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B14" s="9">
-        <v>0.14006727188825607</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3.4062847495079041E-2</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="9"/>
@@ -1918,72 +1918,54 @@
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
